--- a/Consumer/Burberry.xlsx
+++ b/Consumer/Burberry.xlsx
@@ -5,24 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/To Be Modeled/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477CC276-F1A0-674D-AE4A-907715CA07E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2790BA-0AD4-804C-AB11-D782D833CDC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1'!$B$106:$X$106</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Sheet 1'!$B$19:$X$19</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Sheet 1'!$B$3:$X$3</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -965,18 +957,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1011,12 +991,6 @@
     <xf numFmtId="10" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1034,6 +1008,24 @@
     <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2402,36 +2394,36 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>30</v>
+    <v>30.6</v>
     <v>11.005000000000001</v>
-    <v>1.6648000000000001</v>
-    <v>-0.2</v>
-    <v>-6.6669999999999993E-3</v>
+    <v>1.6483000000000001</v>
+    <v>-0.65</v>
+    <v>-2.1558999999999998E-2</v>
     <v>EUR</v>
-    <v>Burberry Group plc is a global luxury goods manufacturer, retailer and wholesaler. The Company also licenses third parties to manufacture and distribute products using the Burberry trademarks. The Company's segments include Retail/wholesale and Licensing. The Retail/wholesale segment is engaged in the sale of luxury goods through Burberry mainline stores, concessions, outlets and digital commerce as well as Burberry franchisees, department stores globally and multi-brand specialty accounts. The flow of global product between retail and wholesale channels and across its regions is monitored and optimized at a corporate level and implemented via the Company's inventory hubs situated in Europe, the United States, mainland China, and Hong Kong, Special Administrative Regions (S.A.R.) China. The Licensing segment generates revenue through the receipt of royalties from global licensees of beauty products, eyewear and from licenses relating to the use of non-Burberry trademarks in Japan.</v>
+    <v>Burberry Group plc is a United Kingdom-based global luxury goods manufacturer, retailer, and wholesaler. The Company also licenses third parties to manufacture and distribute products using the Burberry trademarks. The Company's segments include Retail/wholesale and Licensing. The Retail/wholesale segment is engaged in the sale of luxury goods through Burberry mainline stores, concessions, outlets, and digital commerce, as well as Burberry franchisees, department stores globally and multi-brand specialty accounts. The flow of global product between retail and wholesale channels and across its regions is monitored and optimized at a corporate level and implemented via the Company's inventory hubs situated in Europe, the United States, mainland China, Hong Kong, and Special Administrative Regions (S.A.R.) China. The Licensing segment includes royalties from global licensees of beauty products, eyewear and licenses relating to the use of non-Burberry trademarks in Japan.</v>
     <v>9293</v>
     <v>Deutsche Boerse AG</v>
     <v>XFRA</v>
     <v>XFRA</v>
     <v>Horseferry House, Horseferry Road, Westminster, LONDON, UNITED KINGDOM-NA, SW1P 2AW GB</v>
-    <v>29.8</v>
+    <v>29.5</v>
     <v>Specialty Retailers</v>
     <v>Stock</v>
-    <v>45037.836805555555</v>
+    <v>45055.836805555555</v>
     <v>0</v>
-    <v>29.8</v>
-    <v>9867635000</v>
+    <v>29.35</v>
+    <v>9618054000</v>
     <v>BURBERRY GROUP PLC</v>
     <v>BURBERRY GROUP PLC</v>
-    <v>29.8</v>
-    <v>23.7</v>
-    <v>30</v>
-    <v>29.8</v>
-    <v>378215200</v>
+    <v>29.35</v>
+    <v>24.03</v>
+    <v>30.15</v>
+    <v>29.5</v>
+    <v>378216800</v>
     <v>BB2</v>
     <v>BURBERRY GROUP PLC (XFRA:BB2)</v>
-    <v>25</v>
-    <v>674670</v>
+    <v>300</v>
+    <v>931890</v>
     <v>1997</v>
   </rv>
   <rv s="2">
@@ -2999,10 +2991,10 @@
   <dimension ref="A1:AG118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="W103" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="V70" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AI124" sqref="AI124"/>
+      <selection pane="bottomRight" activeCell="AB81" sqref="AB81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4456,15 +4448,15 @@
       </c>
       <c r="AE16" s="30">
         <f>AF101/X3</f>
-        <v>3.4917321302193915</v>
+        <v>3.4034161358811041</v>
       </c>
       <c r="AF16" s="30">
         <f>AF101/X28</f>
-        <v>24.918270202020203</v>
+        <v>24.28801515151515</v>
       </c>
       <c r="AG16" s="31">
         <f>AF101/X106</f>
-        <v>18.478717228464419</v>
+        <v>18.011337078651685</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -9514,10 +9506,10 @@
       <c r="X83" s="1">
         <v>-22000000</v>
       </c>
-      <c r="AE83" s="33" t="s">
+      <c r="AE83" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="AF83" s="34"/>
+      <c r="AF83" s="62"/>
     </row>
     <row r="84" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -9592,10 +9584,10 @@
       <c r="X84" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AE84" s="35" t="s">
+      <c r="AE84" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="AF84" s="36"/>
+      <c r="AF84" s="64"/>
     </row>
     <row r="85" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -9913,10 +9905,10 @@
       <c r="X88" s="1">
         <v>-128000000</v>
       </c>
-      <c r="AE88" s="37" t="s">
+      <c r="AE88" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="AF88" s="38">
+      <c r="AF88" s="34">
         <f>AF85/(AF86+AF87)</f>
         <v>2.2127052105638829E-2</v>
       </c>
@@ -10179,10 +10171,10 @@
       <c r="X91" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AE91" s="37" t="s">
+      <c r="AE91" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="AF91" s="38">
+      <c r="AF91" s="34">
         <f>AF89/AF90</f>
         <v>0.22309197651663404</v>
       </c>
@@ -10260,10 +10252,10 @@
       <c r="X92" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AE92" s="39" t="s">
+      <c r="AE92" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="AF92" s="40">
+      <c r="AF92" s="36">
         <f>AF88*(1-AF91)</f>
         <v>1.7190684316905312E-2</v>
       </c>
@@ -10341,10 +10333,10 @@
       <c r="X93" s="1">
         <v>-29000000</v>
       </c>
-      <c r="AE93" s="35" t="s">
+      <c r="AE93" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="AF93" s="36"/>
+      <c r="AF93" s="64"/>
     </row>
     <row r="94" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -10422,7 +10414,7 @@
       <c r="AE94" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="AF94" s="41">
+      <c r="AF94" s="37">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -10502,9 +10494,9 @@
       <c r="AE95" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="AF95" s="42" cm="1">
+      <c r="AF95" s="38" cm="1">
         <f t="array" ref="AF95">_FV(A1,"Beta")</f>
-        <v>1.6648000000000001</v>
+        <v>1.6483000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -10583,7 +10575,7 @@
       <c r="AE96" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="AF96" s="41">
+      <c r="AF96" s="37">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -10660,12 +10652,12 @@
       <c r="X97" s="1">
         <v>-153000000</v>
       </c>
-      <c r="AE97" s="39" t="s">
+      <c r="AE97" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="AF97" s="40">
+      <c r="AF97" s="36">
         <f>(AF94)+((AF95)*(AF96-AF94))</f>
-        <v>0.11261964000000001</v>
+        <v>0.11190931500000001</v>
       </c>
     </row>
     <row r="98" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -10741,10 +10733,10 @@
       <c r="X98" s="1">
         <v>-219000000</v>
       </c>
-      <c r="AE98" s="35" t="s">
+      <c r="AE98" s="63" t="s">
         <v>139</v>
       </c>
-      <c r="AF98" s="36"/>
+      <c r="AF98" s="64"/>
     </row>
     <row r="99" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -10900,12 +10892,12 @@
       <c r="X100" s="10">
         <v>-581000000</v>
       </c>
-      <c r="AE100" s="37" t="s">
+      <c r="AE100" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="AF100" s="38">
+      <c r="AF100" s="34">
         <f>AF99/AF103</f>
-        <v>0.1243273919157023</v>
+        <v>0.12714340087633658</v>
       </c>
     </row>
     <row r="101" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -10984,9 +10976,9 @@
       <c r="AE101" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="AF101" s="43" cm="1">
+      <c r="AF101" s="39" cm="1">
         <f t="array" ref="AF101">_FV(A1,"Market cap",TRUE)</f>
-        <v>9867635000</v>
+        <v>9618054000</v>
       </c>
     </row>
     <row r="102" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -11062,12 +11054,12 @@
       <c r="X102" s="10">
         <v>-39000000</v>
       </c>
-      <c r="AE102" s="37" t="s">
+      <c r="AE102" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="AF102" s="38">
+      <c r="AF102" s="34">
         <f>AF101/AF103</f>
-        <v>0.8756726080842977</v>
+        <v>0.87285659912366342</v>
       </c>
     </row>
     <row r="103" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -11143,12 +11135,12 @@
       <c r="X103" s="1">
         <v>1216000000</v>
       </c>
-      <c r="AE103" s="39" t="s">
+      <c r="AE103" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="AF103" s="44">
+      <c r="AF103" s="40">
         <f>AF99+AF101</f>
-        <v>11268635000</v>
+        <v>11019054000</v>
       </c>
     </row>
     <row r="104" spans="1:32" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -11224,10 +11216,10 @@
       <c r="X104" s="11">
         <v>1177000000</v>
       </c>
-      <c r="AE104" s="35" t="s">
+      <c r="AE104" s="63" t="s">
         <v>145</v>
       </c>
-      <c r="AF104" s="36"/>
+      <c r="AF104" s="64"/>
     </row>
     <row r="105" spans="1:32" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -11333,7 +11325,7 @@
       </c>
       <c r="AF105" s="26">
         <f>(AF100*AF92)+(AF102*AF97)</f>
-        <v>0.10075520682668171</v>
+        <v>9.986646616860162E-2</v>
       </c>
     </row>
     <row r="106" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -11409,33 +11401,33 @@
       <c r="X106" s="1">
         <v>534000000</v>
       </c>
-      <c r="Y106" s="45">
+      <c r="Y106" s="41">
         <f>X106*(1+$AF$106)</f>
         <v>582586159.31051743</v>
       </c>
-      <c r="Z106" s="45">
+      <c r="Z106" s="41">
         <f t="shared" ref="Z106:AC106" si="9">Y106*(1+$AF$106)</f>
         <v>635592945.73067343</v>
       </c>
-      <c r="AA106" s="45">
+      <c r="AA106" s="41">
         <f t="shared" si="9"/>
         <v>693422571.41964638</v>
       </c>
-      <c r="AB106" s="45">
+      <c r="AB106" s="41">
         <f t="shared" si="9"/>
         <v>756513843.93744338</v>
       </c>
-      <c r="AC106" s="45">
+      <c r="AC106" s="41">
         <f t="shared" si="9"/>
         <v>825345495.88904738</v>
       </c>
-      <c r="AD106" s="46" t="s">
+      <c r="AD106" s="42" t="s">
         <v>146</v>
       </c>
-      <c r="AE106" s="47" t="s">
+      <c r="AE106" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="AF106" s="48">
+      <c r="AF106" s="44">
         <f>(SUM(Y4:AC4)/5)</f>
         <v>9.0985317060894119E-2</v>
       </c>
@@ -11465,151 +11457,151 @@
       <c r="V107" s="13"/>
       <c r="W107" s="13"/>
       <c r="X107" s="13"/>
-      <c r="Y107" s="46"/>
-      <c r="Z107" s="46"/>
-      <c r="AA107" s="46"/>
-      <c r="AB107" s="46"/>
-      <c r="AC107" s="49">
+      <c r="Y107" s="42"/>
+      <c r="Z107" s="42"/>
+      <c r="AA107" s="42"/>
+      <c r="AB107" s="42"/>
+      <c r="AC107" s="45">
         <f>AC106*(1+AF107)/(AF108-AF107)</f>
-        <v>11167273758.776295</v>
-      </c>
-      <c r="AD107" s="50" t="s">
+        <v>11299840590.593685</v>
+      </c>
+      <c r="AD107" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="AE107" s="51" t="s">
+      <c r="AE107" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="AF107" s="52">
+      <c r="AF107" s="48">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:32" ht="19" x14ac:dyDescent="0.25">
-      <c r="Y108" s="49">
+      <c r="Y108" s="45">
         <f t="shared" ref="Y108:AA108" si="10">Y107+Y106</f>
         <v>582586159.31051743</v>
       </c>
-      <c r="Z108" s="49">
+      <c r="Z108" s="45">
         <f t="shared" si="10"/>
         <v>635592945.73067343</v>
       </c>
-      <c r="AA108" s="49">
+      <c r="AA108" s="45">
         <f t="shared" si="10"/>
         <v>693422571.41964638</v>
       </c>
-      <c r="AB108" s="49">
+      <c r="AB108" s="45">
         <f>AB107+AB106</f>
         <v>756513843.93744338</v>
       </c>
-      <c r="AC108" s="49">
+      <c r="AC108" s="45">
         <f>AC107+AC106</f>
-        <v>11992619254.665342</v>
-      </c>
-      <c r="AD108" s="50" t="s">
+        <v>12125186086.482733</v>
+      </c>
+      <c r="AD108" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="AE108" s="53" t="s">
+      <c r="AE108" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="AF108" s="54">
+      <c r="AF108" s="50">
         <f>AF105</f>
-        <v>0.10075520682668171</v>
+        <v>9.986646616860162E-2</v>
       </c>
     </row>
     <row r="109" spans="1:32" ht="19" x14ac:dyDescent="0.25">
-      <c r="Y109" s="55" t="s">
+      <c r="Y109" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="Z109" s="56"/>
+      <c r="Z109" s="60"/>
     </row>
     <row r="110" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y110" s="57" t="s">
+      <c r="Y110" s="51" t="s">
         <v>152</v>
       </c>
-      <c r="Z110" s="43">
+      <c r="Z110" s="39">
         <f>NPV(AF108,Y108,Z108,AA108,AB108,AC108)</f>
-        <v>9509986606.8656464</v>
+        <v>9626585610.9719143</v>
       </c>
     </row>
     <row r="111" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y111" s="57" t="s">
+      <c r="Y111" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="Z111" s="43">
+      <c r="Z111" s="39">
         <f>X40</f>
         <v>1222000000</v>
       </c>
     </row>
     <row r="112" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y112" s="57" t="s">
+      <c r="Y112" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="Z112" s="43">
+      <c r="Z112" s="39">
         <f>AF99</f>
         <v>1401000000</v>
       </c>
     </row>
     <row r="113" spans="25:26" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y113" s="57" t="s">
+      <c r="Y113" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="Z113" s="43">
+      <c r="Z113" s="39">
         <f>Z110+Z111-Z112</f>
-        <v>9330986606.8656464</v>
+        <v>9447585610.9719143</v>
       </c>
     </row>
     <row r="114" spans="25:26" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y114" s="57" t="s">
+      <c r="Y114" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="Z114" s="58">
+      <c r="Z114" s="52">
         <f>X34*(1+(5*AD16))</f>
         <v>370067289.47561127</v>
       </c>
     </row>
     <row r="115" spans="25:26" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y115" s="59" t="s">
+      <c r="Y115" s="53" t="s">
         <v>156</v>
       </c>
-      <c r="Z115" s="60">
+      <c r="Z115" s="54">
         <f>Z113/Z114</f>
-        <v>25.214297162247817</v>
+        <v>25.529372305126532</v>
       </c>
     </row>
     <row r="116" spans="25:26" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y116" s="57" t="s">
+      <c r="Y116" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="Z116" s="61" cm="1">
+      <c r="Z116" s="55" cm="1">
         <f t="array" ref="Z116">_FV(A1,"Price")</f>
-        <v>29.8</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="117" spans="25:26" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y117" s="62" t="s">
+      <c r="Y117" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="Z117" s="63">
+      <c r="Z117" s="57">
         <f>Z115/Z116-1</f>
-        <v>-0.15388264556215381</v>
+        <v>-0.13459754897876164</v>
       </c>
     </row>
     <row r="118" spans="25:26" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y118" s="62" t="s">
+      <c r="Y118" s="56" t="s">
         <v>159</v>
       </c>
-      <c r="Z118" s="64" t="str">
+      <c r="Z118" s="58" t="str">
         <f>IF(Z115&gt;Z116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="Y109:Z109"/>
     <mergeCell ref="AE83:AF83"/>
     <mergeCell ref="AE84:AF84"/>
     <mergeCell ref="AE93:AF93"/>
     <mergeCell ref="AE98:AF98"/>
     <mergeCell ref="AE104:AF104"/>
-    <mergeCell ref="Y109:Z109"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/BRBY.L" display="ROIC.AI | BRBY.L" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/Consumer/Burberry.xlsx
+++ b/Consumer/Burberry.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2790BA-0AD4-804C-AB11-D782D833CDC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A192E3-511C-0740-9AEC-053FE59C82C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2396,34 +2396,34 @@
     <v>Powered by Refinitiv</v>
     <v>30.6</v>
     <v>11.005000000000001</v>
-    <v>1.6483000000000001</v>
-    <v>-0.65</v>
-    <v>-2.1558999999999998E-2</v>
+    <v>1.6946000000000001</v>
+    <v>-1.85</v>
+    <v>-6.9029999999999994E-2</v>
     <v>EUR</v>
     <v>Burberry Group plc is a United Kingdom-based global luxury goods manufacturer, retailer, and wholesaler. The Company also licenses third parties to manufacture and distribute products using the Burberry trademarks. The Company's segments include Retail/wholesale and Licensing. The Retail/wholesale segment is engaged in the sale of luxury goods through Burberry mainline stores, concessions, outlets, and digital commerce, as well as Burberry franchisees, department stores globally and multi-brand specialty accounts. The flow of global product between retail and wholesale channels and across its regions is monitored and optimized at a corporate level and implemented via the Company's inventory hubs situated in Europe, the United States, mainland China, Hong Kong, and Special Administrative Regions (S.A.R.) China. The Licensing segment includes royalties from global licensees of beauty products, eyewear and licenses relating to the use of non-Burberry trademarks in Japan.</v>
-    <v>9293</v>
+    <v>9201</v>
     <v>Deutsche Boerse AG</v>
     <v>XFRA</v>
     <v>XFRA</v>
     <v>Horseferry House, Horseferry Road, Westminster, LONDON, UNITED KINGDOM-NA, SW1P 2AW GB</v>
-    <v>29.5</v>
+    <v>25.05</v>
     <v>Specialty Retailers</v>
     <v>Stock</v>
-    <v>45055.836805555555</v>
+    <v>45100.645833333336</v>
     <v>0</v>
-    <v>29.35</v>
-    <v>9618054000</v>
+    <v>24.95</v>
+    <v>8184662000</v>
     <v>BURBERRY GROUP PLC</v>
     <v>BURBERRY GROUP PLC</v>
-    <v>29.35</v>
-    <v>24.03</v>
-    <v>30.15</v>
-    <v>29.5</v>
-    <v>378216800</v>
+    <v>25.05</v>
+    <v>18.489999999999998</v>
+    <v>26.8</v>
+    <v>24.95</v>
+    <v>378219100</v>
     <v>BB2</v>
     <v>BURBERRY GROUP PLC (XFRA:BB2)</v>
-    <v>300</v>
-    <v>931890</v>
+    <v>22</v>
+    <v>782180</v>
     <v>1997</v>
   </rv>
   <rv s="2">
@@ -2991,10 +2991,10 @@
   <dimension ref="A1:AG118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="V70" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="V90" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AB81" sqref="AB81"/>
+      <selection pane="bottomRight" activeCell="W117" sqref="W117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4448,15 +4448,15 @@
       </c>
       <c r="AE16" s="30">
         <f>AF101/X3</f>
-        <v>3.4034161358811041</v>
+        <v>2.8962002830856335</v>
       </c>
       <c r="AF16" s="30">
         <f>AF101/X28</f>
-        <v>24.28801515151515</v>
+        <v>20.668338383838385</v>
       </c>
       <c r="AG16" s="31">
         <f>AF101/X106</f>
-        <v>18.011337078651685</v>
+        <v>15.327082397003746</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -10496,7 +10496,7 @@
       </c>
       <c r="AF95" s="38" cm="1">
         <f t="array" ref="AF95">_FV(A1,"Beta")</f>
-        <v>1.6483000000000001</v>
+        <v>1.6946000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -10657,7 +10657,7 @@
       </c>
       <c r="AF97" s="36">
         <f>(AF94)+((AF95)*(AF96-AF94))</f>
-        <v>0.11190931500000001</v>
+        <v>0.11390253000000002</v>
       </c>
     </row>
     <row r="98" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -10897,7 +10897,7 @@
       </c>
       <c r="AF100" s="34">
         <f>AF99/AF103</f>
-        <v>0.12714340087633658</v>
+        <v>0.14615578976183388</v>
       </c>
     </row>
     <row r="101" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -10978,7 +10978,7 @@
       </c>
       <c r="AF101" s="39" cm="1">
         <f t="array" ref="AF101">_FV(A1,"Market cap",TRUE)</f>
-        <v>9618054000</v>
+        <v>8184662000</v>
       </c>
     </row>
     <row r="102" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -11059,7 +11059,7 @@
       </c>
       <c r="AF102" s="34">
         <f>AF101/AF103</f>
-        <v>0.87285659912366342</v>
+        <v>0.85384421023816615</v>
       </c>
     </row>
     <row r="103" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -11140,7 +11140,7 @@
       </c>
       <c r="AF103" s="40">
         <f>AF99+AF101</f>
-        <v>11019054000</v>
+        <v>9585662000</v>
       </c>
     </row>
     <row r="104" spans="1:32" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -11325,7 +11325,7 @@
       </c>
       <c r="AF105" s="26">
         <f>(AF100*AF92)+(AF102*AF97)</f>
-        <v>9.986646616860162E-2</v>
+        <v>9.9767533814862711E-2</v>
       </c>
     </row>
     <row r="106" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -11463,7 +11463,7 @@
       <c r="AB107" s="42"/>
       <c r="AC107" s="45">
         <f>AC106*(1+AF107)/(AF108-AF107)</f>
-        <v>11299840590.593685</v>
+        <v>11314792532.559166</v>
       </c>
       <c r="AD107" s="46" t="s">
         <v>148</v>
@@ -11494,7 +11494,7 @@
       </c>
       <c r="AC108" s="45">
         <f>AC107+AC106</f>
-        <v>12125186086.482733</v>
+        <v>12140138028.448214</v>
       </c>
       <c r="AD108" s="46" t="s">
         <v>144</v>
@@ -11504,7 +11504,7 @@
       </c>
       <c r="AF108" s="50">
         <f>AF105</f>
-        <v>9.986646616860162E-2</v>
+        <v>9.9767533814862711E-2</v>
       </c>
     </row>
     <row r="109" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -11519,7 +11519,7 @@
       </c>
       <c r="Z110" s="39">
         <f>NPV(AF108,Y108,Z108,AA108,AB108,AC108)</f>
-        <v>9626585610.9719143</v>
+        <v>9639737314.9197006</v>
       </c>
     </row>
     <row r="111" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -11546,7 +11546,7 @@
       </c>
       <c r="Z113" s="39">
         <f>Z110+Z111-Z112</f>
-        <v>9447585610.9719143</v>
+        <v>9460737314.9197006</v>
       </c>
     </row>
     <row r="114" spans="25:26" ht="20" x14ac:dyDescent="0.25">
@@ -11564,7 +11564,7 @@
       </c>
       <c r="Z115" s="54">
         <f>Z113/Z114</f>
-        <v>25.529372305126532</v>
+        <v>25.564910987744017</v>
       </c>
     </row>
     <row r="116" spans="25:26" ht="20" x14ac:dyDescent="0.25">
@@ -11573,7 +11573,7 @@
       </c>
       <c r="Z116" s="55" cm="1">
         <f t="array" ref="Z116">_FV(A1,"Price")</f>
-        <v>29.5</v>
+        <v>24.95</v>
       </c>
     </row>
     <row r="117" spans="25:26" ht="20" x14ac:dyDescent="0.25">
@@ -11582,7 +11582,7 @@
       </c>
       <c r="Z117" s="57">
         <f>Z115/Z116-1</f>
-        <v>-0.13459754897876164</v>
+        <v>2.4645730971704083E-2</v>
       </c>
     </row>
     <row r="118" spans="25:26" ht="20" x14ac:dyDescent="0.25">
@@ -11591,7 +11591,7 @@
       </c>
       <c r="Z118" s="58" t="str">
         <f>IF(Z115&gt;Z116,"BUY","SELL")</f>
-        <v>SELL</v>
+        <v>BUY</v>
       </c>
     </row>
   </sheetData>
